--- a/report_ca_nhan/CẦN THƠ/NV-29 Lâm Hoàng Phú 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-29 Lâm Hoàng Phú 7-2024.xlsx
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="4">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1821428.571428571</v>
+        <v>2035714.285714286</v>
       </c>
     </row>
     <row r="21">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>845000</v>
+        <v>915000</v>
       </c>
     </row>
     <row r="29">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1890228.571428571</v>
+        <v>2104514.285714285</v>
       </c>
     </row>
     <row r="31">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2735228.571428571</v>
+        <v>3019514.285714285</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/NV-29 Lâm Hoàng Phú 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-29 Lâm Hoàng Phú 7-2024.xlsx
@@ -654,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,20 +1099,106 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>575</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Lan Anh</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>576</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>700000</v>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>850000</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +1307,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>700000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="10">
@@ -1411,7 +1497,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915000</v>
+        <v>1065000</v>
       </c>
     </row>
     <row r="29">
@@ -1441,7 +1527,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3019514.285714285</v>
+        <v>3169514.285714285</v>
       </c>
     </row>
   </sheetData>
